--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt10a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt10a-Fzd8.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N2">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O2">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P2">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q2">
-        <v>0.311668197048</v>
+        <v>0.38642144180775</v>
       </c>
       <c r="R2">
-        <v>1.246672788192</v>
+        <v>1.545685767231</v>
       </c>
       <c r="S2">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="T2">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>6.130444</v>
       </c>
       <c r="O3">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P3">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q3">
         <v>0.247912090138</v>
@@ -641,10 +641,10 @@
         <v>1.487472540828</v>
       </c>
       <c r="S3">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="T3">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N4">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O4">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P4">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q4">
-        <v>0.00146310111</v>
+        <v>0.000476539068</v>
       </c>
       <c r="R4">
-        <v>0.008778606659999999</v>
+        <v>0.002859234408</v>
       </c>
       <c r="S4">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="T4">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N5">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O5">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P5">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q5">
-        <v>0.39446206803225</v>
+        <v>0.23786912229075</v>
       </c>
       <c r="R5">
-        <v>1.577848272129</v>
+        <v>0.951476489163</v>
       </c>
       <c r="S5">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="T5">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N6">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O6">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P6">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q6">
-        <v>0.2493343877925</v>
+        <v>0.0034597205435</v>
       </c>
       <c r="R6">
-        <v>1.496006326755</v>
+        <v>0.020758323261</v>
       </c>
       <c r="S6">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="T6">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N7">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O7">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P7">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q7">
-        <v>0.0044708698015</v>
+        <v>0.0007901473905</v>
       </c>
       <c r="R7">
-        <v>0.026825218809</v>
+        <v>0.004740884343</v>
       </c>
       <c r="S7">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="T7">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
     </row>
   </sheetData>
